--- a/scripts/blm/data/sampleVSpopulation/continuous.xlsx
+++ b/scripts/blm/data/sampleVSpopulation/continuous.xlsx
@@ -15,15 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>AVG(AGE_DOM)</t>
-  </si>
-  <si>
-    <t>AVG(QMDA_DOM)</t>
-  </si>
-  <si>
-    <t>AVG(SDI)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>avg_age_dom</t>
+  </si>
+  <si>
+    <t>avg_baa_ge_3</t>
+  </si>
+  <si>
+    <t>avg_qmda_dom</t>
+  </si>
+  <si>
+    <t>avg_sdi</t>
   </si>
   <si>
     <t>batch</t>
@@ -35,13 +38,16 @@
     <t>population</t>
   </si>
   <si>
-    <t>stdev(AGE_DOM)</t>
-  </si>
-  <si>
-    <t>stdev(QMDA_DOM)</t>
-  </si>
-  <si>
-    <t>stdev(SDI)</t>
+    <t>stdev_age_dom</t>
+  </si>
+  <si>
+    <t>stdev_baa_ge_3</t>
+  </si>
+  <si>
+    <t>stdev_qmda_dom</t>
+  </si>
+  <si>
+    <t>stdev_sdi</t>
   </si>
 </sst>
 </file>
@@ -424,31 +430,31 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c s="1" t="s" r="B1">
+        <v>4</v>
+      </c>
+      <c s="1" t="s" r="C1">
+        <v>2</v>
+      </c>
+      <c s="1" t="s" r="D1">
+        <v>9</v>
+      </c>
+      <c s="1" t="s" r="E1">
         <v>3</v>
       </c>
-      <c s="1" t="s" r="C1">
-        <v>1</v>
-      </c>
-      <c s="1" t="s" r="D1">
-        <v>7</v>
-      </c>
-      <c s="1" t="s" r="E1">
-        <v>2</v>
-      </c>
       <c s="1" t="s" r="F1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c s="1" t="s" r="G1">
         <v>1</v>
       </c>
       <c s="1" t="s" r="H1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c s="1" t="s" r="I1">
         <v>0</v>
       </c>
       <c s="1" t="s" r="J1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -456,31 +462,31 @@
         <v>0</v>
       </c>
       <c t="s" r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="n" r="C2">
         <v>39.21730670206886</v>
       </c>
       <c t="n" r="D2">
-        <v>39.21730670206886</v>
+        <v>23.72100633767406</v>
       </c>
       <c t="n" r="E2">
-        <v>23.72100633767406</v>
+        <v>160.96087242263252</v>
       </c>
       <c t="n" r="F2">
-        <v>23.72100633767406</v>
+        <v>86.8903654498281</v>
       </c>
       <c t="n" r="G2">
-        <v>160.96087242263252</v>
+        <v>35.93972649697877</v>
       </c>
       <c t="n" r="H2">
-        <v>86.8903654498281</v>
+        <v>22.094126021995667</v>
       </c>
       <c t="n" r="I2">
-        <v>39.21730670206886</v>
+        <v>82.99607577366763</v>
       </c>
       <c t="n" r="J2">
-        <v>39.21730670206886</v>
+        <v>63.434920445936925</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -488,31 +494,31 @@
         <v>1</v>
       </c>
       <c t="s" r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c t="n" r="C3">
         <v>38.36019362815148</v>
       </c>
       <c t="n" r="D3">
-        <v>38.36019362815148</v>
+        <v>23.574573207606946</v>
       </c>
       <c t="n" r="E3">
-        <v>23.574573207606946</v>
+        <v>156.4452458217789</v>
       </c>
       <c t="n" r="F3">
-        <v>23.574573207606946</v>
+        <v>89.40275301100738</v>
       </c>
       <c t="n" r="G3">
-        <v>156.4452458217789</v>
+        <v>35.026828726825535</v>
       </c>
       <c t="n" r="H3">
-        <v>89.40275301100738</v>
+        <v>22.270402233824562</v>
       </c>
       <c t="n" r="I3">
-        <v>38.36019362815148</v>
+        <v>81.31562304512214</v>
       </c>
       <c t="n" r="J3">
-        <v>38.36019362815148</v>
+        <v>63.64814364639742</v>
       </c>
     </row>
   </sheetData>
